--- a/data/trans_dic/P28C_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P28C_2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +521,21 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyas relaciones sociales han disminuido respecto al último mes</t>
+          <t>Población cuyas relaciones sociales han disminuido respecto al último mes (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,33 +544,87 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -542,6 +634,15 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>11,1%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6,89%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>11,76%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8,18%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13,75%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9,11%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>17,42%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12,11%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8,05%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>14,64%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10,18%</t>
         </is>
       </c>
     </row>
@@ -579,17 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,5; 14,17</t>
+          <t>8,65; 13,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,96; 20,46</t>
+          <t>4,77; 9,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,95; 16,46</t>
+          <t>9,59; 14,4</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6,16; 10,62</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11,46; 16,04</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6,84; 12,17</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>14,78; 20,53</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10,08; 14,68</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10,88; 14,22</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6,53; 10,13</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12,98; 16,42</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8,75; 11,66</t>
         </is>
       </c>
     </row>
@@ -606,17 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>12,63%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8,11%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>7,59%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>12,95%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6,79%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11,53%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12,96%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13,01%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12,08%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,05%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>10,14%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9,76%</t>
         </is>
       </c>
     </row>
@@ -629,17 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,56; 11,93</t>
+          <t>9,46; 18,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,69; 18,83</t>
+          <t>4,97; 13,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,61; 13,86</t>
+          <t>4,5; 11,69</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4,17; 10,36</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9,2; 14,53</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6,0; 11,16</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8,77; 18,81</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8,72; 18,18</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10,06; 15,08</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5,95; 10,74</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7,49; 13,53</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7,16; 12,76</t>
         </is>
       </c>
     </row>
@@ -656,15 +937,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>8,78%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5,56%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8,68%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,04%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -679,15 +1005,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>5,01; 14,4</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 7,0</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 14,04</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 10,79</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5,97; 12,25</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 7,2</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -706,17 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>6,85%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10,76%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12,31%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8,27%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>16,46%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12,31%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11,88%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7,58%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>13,62%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10,09%</t>
         </is>
       </c>
     </row>
@@ -729,27 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 13,05</t>
+          <t>9,52; 13,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,33; 19,08</t>
+          <t>5,25; 9,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,17; 15,41</t>
+          <t>8,72; 12,94</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6,29; 9,95</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10,8; 14,1</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6,76; 10,21</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14,42; 18,98</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10,36; 14,4</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>10,73; 13,33</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 9,05</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>12,09; 15,28</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8,78; 11,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas relaciones sociales han disminuido respecto al último mes (tasa de respuesta: 99,79%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>181763</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>111949</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>26941</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18505</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>249765</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>163457</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>41293</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>28482</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>431528</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>275407</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>68234</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>46987</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>141667; 226300</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>77456; 157274</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21959; 32979</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13937; 24030</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>208270; 291472</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>122873; 218483</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>35041; 48659</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23708; 34517</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>375906; 491163</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>223322; 346420</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>60476; 76546</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>40363; 53810</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>173373</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>112292</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5457</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>157110</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>111303</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8448</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8643</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>330483</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>223595</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>13905</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13579</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>129894; 253808</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>68858; 181534</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3238; 8404</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3034; 7528</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>125398; 198044</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>83431; 155251</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5716; 12262</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5788; 12077</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>275173; 412565</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>165228; 298223</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10264; 18551</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9963; 17754</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>36748</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10611</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>35130</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22887</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>71878</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>33497</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20947; 60226</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2335; 29189</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>21125; 57548</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8235; 44458</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>49451; 101486</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14977; 59646</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>391884</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>234852</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>32398</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>23441</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>442006</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>297646</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>49741</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>37126</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>833890</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>532499</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>82139</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>60567</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>326332; 473199</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>179755; 315117</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>26242; 38954</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>18798; 29744</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>387881; 506068</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>243319; 367305</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>43578; 57357</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>31241; 43420</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>752788; 935651</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>449148; 635405</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>72945; 92142</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>52749; 69227</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
